--- a/BaoCao_SystemTest_FullCart.xlsx
+++ b/BaoCao_SystemTest_FullCart.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -38,25 +38,66 @@
     <t>ST_CART_FULL</t>
   </si>
   <si>
-    <t>Quy trình Mua hàng trọn vẹn</t>
-  </si>
-  <si>
-    <t>1. Home -&gt; Xem chi tiết
+    <t>Quy trình Mua hàng trọn vẹn (CRUD giỏ hàng)</t>
+  </si>
+  <si>
+    <t>1. Home -&gt; Xem chi tiết SP
 2. Chọn Size -&gt; Thêm vào giỏ
 3. Vào giỏ -&gt; Update SL lên 2
-4. Xóa SP</t>
+4. Kiểm tra tổng tiền
+5. Xóa SP</t>
   </si>
   <si>
     <t>SP ngẫu nhiên</t>
   </si>
   <si>
-    <t>Thêm thành công, tính tiền đúng, xóa sạch</t>
-  </si>
-  <si>
-    <t>Xong luồng. Trạng thái Empty: true</t>
+    <t>Thêm thành công, tính tổng tiền đúng (Price * 2), giỏ hàng trống sau khi xóa</t>
+  </si>
+  <si>
+    <t>Xong luồng. Trạng thái Giỏ hàng trống: true</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>ST_CART_INV_QTY</t>
+  </si>
+  <si>
+    <t>Cập nhật số lượng về 0 (Kiểm tra ràng buộc tối thiểu)</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo giỏ có hàng
+2. Nhập số lượng 0
+3. Check Alert JS và giá trị input</t>
+  </si>
+  <si>
+    <t>Quantity: 0</t>
+  </si>
+  <si>
+    <t>Hiện Browser Alert và số lượng trong input tự động reset về 1</t>
+  </si>
+  <si>
+    <t>Có Alert: Số lượng tối thiểu là 1! Nếu bạn muốn xóa sản phẩm, vui lòng bấm nút Xóa (thùng rác). | Value reset về: 1</t>
+  </si>
+  <si>
+    <t>ST_CART_LARGE_QTY</t>
+  </si>
+  <si>
+    <t>Cập nhật số lượng lớn (Kiểm tra ràng buộc tối đa/Tồn kho)</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo giỏ có hàng
+2. Nhập số lượng lớn (9999)
+3. Check thông báo HTML và giá trị input</t>
+  </si>
+  <si>
+    <t>Quantity: 9999</t>
+  </si>
+  <si>
+    <t>Input reset về Max Stock &amp; Hiện thông báo HTML về tồn kho</t>
+  </si>
+  <si>
+    <t>Giá trị sau khi nhập: 100 | Alert: Thông báo: Rất tiếc! Sản phẩm này chỉ còn 100 cái trong kho.</t>
   </si>
 </sst>
 </file>
@@ -134,18 +175,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.57421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="39.01171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="32.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="37.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.40234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="68.74609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="104.02734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -195,6 +236,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
